--- a/output/Посылки.xlsx
+++ b/output/Посылки.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>ammunition-store@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -691,7 +691,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>ammunition-store@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -809,7 +809,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>ammunition-store@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -927,7 +927,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>hunting-club-store@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>hunting-club-store@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>hunting-club-store@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>hunting-club-store@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>hunting-club-store@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>hunting-club-store@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>hunting-club-store@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>hunting-club-store@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>hunting-club-store@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>hunting-club-store@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>info@vorobey-club.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P15" t="n">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>info@vorobey-club.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>info@vorobey-club.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P17" t="n">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>info@vorobey-club.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>info@vorobey-club.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>info@vorobey-club.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>info@vorobey-club.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P21" t="n">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>info@vorobey-club.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>info@vorobey-club.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>info@vorobey-club.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>info@vorobey-club.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>info@vorobey-club.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>info@vorobey-club.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>info@vorobey-club.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>info@vorobey-club.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P29" t="n">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>info@vorobey-club.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P30" t="n">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>info@vorobey-club.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P31" t="n">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>info@vorobey-club.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P32" t="n">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>info@vorobey-club.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>info@vorobey-club.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4384,7 +4384,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>sadovyy-ioj@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>sadovyy-ioj@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P36" t="n">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>sadovyy-ioj@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>sadovyy-ioj@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>sadovyy-ioj@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>sadovyy-ioj@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>sadovyy-ioj@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>sadovyy-ioj@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>sadovyy-ioj@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>sadovyy-ioj@mail.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P44" t="n">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -5702,7 +5702,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -5810,7 +5810,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -5820,7 +5820,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P47" t="n">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P48" t="n">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -6174,7 +6174,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P49" t="n">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P50" t="n">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -6410,7 +6410,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P51" t="n">
@@ -6475,7 +6475,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P52" t="n">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -6646,7 +6646,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -6754,7 +6754,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -6764,7 +6764,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6862,7 +6862,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P55" t="n">
@@ -6947,7 +6947,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -7098,7 +7098,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -7108,7 +7108,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -7118,7 +7118,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -7183,7 +7183,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -7301,7 +7301,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -7354,7 +7354,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7452,7 +7452,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -7537,7 +7537,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7570,7 +7570,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -7580,7 +7580,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7688,7 +7688,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -7698,7 +7698,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P62" t="n">
@@ -7773,7 +7773,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -7891,7 +7891,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7924,7 +7924,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -7934,7 +7934,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -8042,7 +8042,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -8127,7 +8127,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -8171,7 +8171,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -8182,7 +8182,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P66" t="n">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -8280,7 +8280,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -8306,7 +8306,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P67" t="n">
@@ -8371,7 +8371,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -8404,7 +8404,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -8414,7 +8414,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -8424,7 +8424,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -8489,7 +8489,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -8522,7 +8522,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -8544,7 +8544,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8642,7 +8642,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -8662,7 +8662,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club1@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -8760,7 +8760,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -8770,7 +8770,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club3@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -8878,7 +8878,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -8888,7 +8888,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -8898,7 +8898,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -8963,7 +8963,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club3@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club3@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -9124,7 +9124,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P74" t="n">
@@ -9199,7 +9199,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club3@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -9232,7 +9232,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P75" t="n">
@@ -9317,7 +9317,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club3@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -9360,7 +9360,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P76" t="n">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club3@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -9468,7 +9468,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -9553,7 +9553,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club3@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -9606,7 +9606,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -9671,7 +9671,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club3@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P79" t="n">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club3@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -9822,7 +9822,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P80" t="n">
@@ -9907,7 +9907,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club3@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -9940,7 +9940,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -9962,7 +9962,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P81" t="n">
@@ -10027,7 +10027,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ожидается отправка</t>
+          <t>vorobey-club3@bk.ru 2021-06-28.xlsx</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -10070,7 +10070,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -10080,7 +10080,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P82" t="n">
